--- a/DSA Crack/FINAL450.xlsx
+++ b/DSA Crack/FINAL450.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fahim\Programming-Problem-Solving\DSA Crack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming-Problem-Solving\DSA Crack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1988,8 +1988,8 @@
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
+      <c r="C9" s="11" t="s">
+        <v>465</v>
       </c>
       <c r="D9" s="3">
         <v>5</v>
@@ -2002,8 +2002,8 @@
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
+      <c r="C10" s="11" t="s">
+        <v>465</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
